--- a/samplesSheet-TEMPLATE.xlsx
+++ b/samplesSheet-TEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gamidor\MyScreen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029D4A85-CA07-4934-A541-3AA97886B9E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432A2642-18AC-4FCF-9C8C-0D75D8044844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7D86DD-2D29-4F9B-8CA7-E782E7F45568}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
